--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/12022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/12022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 12 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Marcos
-Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
-*Oración de la mañana*
-Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
-Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
-Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
-En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>jueves, 12 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 24-30 En aquel tiempo, Jesús salió de Genesaret y se fue a la región donde se encuentra Tiro. Entró en una casa, pues no quería que nadie se enterara de que estaba ahí, pero no pudo pasar inadvertido. Una mujer, que tenía una niña poseída por un espíritu impuro, se enteró enseguida, fue a buscarlo y se postró a sus pies. Cuando aquella mujer, una siria de Fenicia y pagana, le rogaba a Jesús que le sacara el demonio a su hija, él le respondió: "Deja que coman primero los hijos. No está bien quitarles el pan a los hijos para echárselo a los perritos". La mujer le replicó: "Sí, Señor; pero también es cierto que los perritos, debajo de la mesa, comen las migajas que tiran los niños". Entonces Jesús le contestó: "Anda, vete; por eso que has dicho, el demonio ha salido ya de tu hija". Al llegar a su casa, la mujer encontró a su hija recostada en la cama, y ya el demonio había salido de ella.
+*Oración de la mañana*
+Querido Jesús, nuestro Salvador, en este nuevo día, aclaramos nuestra mirada y abrimos nuestro corazón a Tu divina presencia. Inspirados en el Evangelio del día, te pedimos que nos ayudes a reconocer que, sin importar nuestra procedencia o condición, todos somos dignos de Tu misericordia y amor. Enséñanos a buscar Tu ayuda con fe y humildad, como aquella mujer fenicia que, a pesar de sus circunstancias, encontró en Ti la salvación para su hija.
+Amado Padre, que nos das el amanecer de este nuevo día, gracias por Tu bondad y generosidad. Te agradecemos por el pan que nos ofreces cada día, alimento para nuestro cuerpo y nuestra alma. Ayúdanos a valorar y compartir lo que nos has dado, reconociendo que Tu amor y gracia son para todos, sin distinción.
+Espíritu Santo, Guía de nuestras vidas, te rogamos que nos ilumines y nos fortalezcas en nuestra fe. Que, como la mujer en el Evangelio, podamos tener la valentía de acercarnos a Jesús, a pesar de nuestros miedos y dudas. Infunde en nosotros la sabiduría para entender que en los momentos de dificultad, incluso las migajas de Tu mesa son suficientes para sanarnos y restaurarnos.
+En la unidad de la Santísima Trinidad, comenzamos este día con esperanza y gratitud. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>